--- a/DataWizardd/논문.xlsx
+++ b/DataWizardd/논문.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\OneDrive\바탕 화면\학위논문\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\DataWizardd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABA42D0-BD46-45F0-9004-7B2818ED0B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C08A90-56A9-4FEF-861C-6C95E08E8EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{04E6D499-3175-41A6-A5B8-8614BDFE1153}"/>
+    <workbookView xWindow="-24098" yWindow="-83" windowWidth="24196" windowHeight="15196" xr2:uid="{04E6D499-3175-41A6-A5B8-8614BDFE1153}"/>
   </bookViews>
   <sheets>
     <sheet name="지하철" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>출처</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,162 +118,214 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://scholar.google.co.kr/scholar?hl=ko&amp;as_sdt=0%2C5&amp;q=%EC%A7%80%ED%95%98%EC%B2%A0+%ED%98%BC%EC%9E%A1%EB%8F%84&amp;btnG=</t>
+  </si>
+  <si>
+    <t>https://file1-earticle-net-ssl.access.inu.ac.kr/PDF/Direct?key=uzY9K/Mgzqlo7bclaS2QUrawvnLJegd+JWrVnDUfpiv1fMvcl6f2jr6sStj4mHRWZYFp4rk1PUYUtwlt6FzqtH7glSSNvBkyXqY/Gl8gQq5lEi+gn1IMwocg/tck7i0J8X4gFmLHycRcc+OGnG693HUzR5DIoZDe/MHOdev9uIvsM/wubQzbxwwq+IuMWQc/DNGXw6QEHM43vcMBTIzoiFC71v0UEG+ofrtqD7HR4xI=</t>
+  </si>
+  <si>
+    <t>https://file1-earticle-net-ssl.access.inu.ac.kr/PDF/Direct?key=uzY9K/Mgzqlo7bclaS2QUrawvnLJegd+JWrVnDUfpiv1fMvcl6f2jr6sStj4mHRW8cseDvPMdN4G7PWKkxklP2untLQCjX0ElAGy3rDYCATB4h4VNRLx0j1BbFxQz1WDWpgJj9vz7KsT6q4jpbaYls9G6v85KilzSZJN/E7R2CT86G+V4bSaNsMzF7NDCIPj2pIXiFBSJJP+479d2mqG5njkVOinzEzTbbxFqbkJbmA=</t>
+  </si>
+  <si>
+    <t>지하철 혼잡도 개선을 위한 데이터 분석 및 시각화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 기반 2호선 출퇴근 시간대 지하철 역사 내 혼잡도 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://openlink.access.inu.ac.kr:8080/link.n2s?url=http%3A%2F%2Fwww.earticle.net%2FArticle.aspx%3Fsn%3D439037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내학술논문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2호선 대상, 로지스틱 회귀, 의사결정나무, 랜덤포레스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www-dbpia-co-kr-ssl.access.inu.ac.kr/journal/articleDetail?nodeId=NODE11737545</t>
+  </si>
+  <si>
+    <t>https://www-earticle-net-ssl.access.inu.ac.kr/Article/A385365</t>
+  </si>
+  <si>
+    <t>내용 및 방법론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분석 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼잡도를 다중 회귀 분석으로 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013~2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가통계포털 및 SNS 크롤링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허브역(환승역) 혼잡도 가중치 적용X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허브역 가중치 부여 및 역 주위 정보 인자 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재흥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4호선 부족, 단순 데이터 시각화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울교통공사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공데이터포털(2호선)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한계점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019, 2022(2020,2021 코로나로 인해 제외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노션별 특징 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 공공데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공데이터 외 다른 데이터 활용 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상업지구, 유동인구 많은 곳과 혼잡도 연관 높음, R로 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공데이터포털, 서울 열린데이터광장, 기상자료개방포털</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021~2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대별, 기상 조건 고려, MLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코로나&amp;기상 데이터 고려, GRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 분 단위의 승하차 이외 데이터 부재, 최단경로를 사용한다는 가정에 의한 오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>빅데이터 분석을 이용한 지하철 혼잡도 예측 및 추천시스템</t>
-  </si>
-  <si>
-    <t>https://scholar.google.co.kr/scholar?hl=ko&amp;as_sdt=0%2C5&amp;q=%EC%A7%80%ED%95%98%EC%B2%A0+%ED%98%BC%EC%9E%A1%EB%8F%84&amp;btnG=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종속변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정원대비 좌석및입석인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차 20% 정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2호선만 대상으로 연구 + 이진분류 변환 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 95%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지하철 혼잡도 개선방안에 관한 빅데이터융합 기반의 탐색적 연구</t>
-  </si>
-  <si>
-    <t>https://file1-earticle-net-ssl.access.inu.ac.kr/PDF/Direct?key=uzY9K/Mgzqlo7bclaS2QUrawvnLJegd+JWrVnDUfpiv1fMvcl6f2jr6sStj4mHRWZYFp4rk1PUYUtwlt6FzqtH7glSSNvBkyXqY/Gl8gQq5lEi+gn1IMwocg/tck7i0J8X4gFmLHycRcc+OGnG693HUzR5DIoZDe/MHOdev9uIvsM/wubQzbxwwq+IuMWQc/DNGXw6QEHM43vcMBTIzoiFC71v0UEG+ofrtqD7HR4xI=</t>
-  </si>
-  <si>
-    <t>https://file1-earticle-net-ssl.access.inu.ac.kr/PDF/Direct?key=uzY9K/Mgzqlo7bclaS2QUrawvnLJegd+JWrVnDUfpiv1fMvcl6f2jr6sStj4mHRW8cseDvPMdN4G7PWKkxklP2untLQCjX0ElAGy3rDYCATB4h4VNRLx0j1BbFxQz1WDWpgJj9vz7KsT6q4jpbaYls9G6v85KilzSZJN/E7R2CT86G+V4bSaNsMzF7NDCIPj2pIXiFBSJJP+479d2mqG5njkVOinzEzTbbxFqbkJbmA=</t>
-  </si>
-  <si>
-    <t>지하철 혼잡도 개선을 위한 데이터 분석 및 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머신러닝 기반 2호선 출퇴근 시간대 지하철 역사 내 혼잡도 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://openlink.access.inu.ac.kr:8080/link.n2s?url=http%3A%2F%2Fwww.earticle.net%2FArticle.aspx%3Fsn%3D439037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국내학술논문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>딥러닝 분석을 이용한 지하철역 혼잡도 변화의 동적 분석 및 예측 모델에 관한 연구</t>
-  </si>
-  <si>
-    <t>2호선 대상, 로지스틱 회귀, 의사결정나무, 랜덤포레스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www-dbpia-co-kr-ssl.access.inu.ac.kr/journal/articleDetail?nodeId=NODE11737545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승하차인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차 16% 정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GRU를 이용한 서울시 지하철 구간별 혼잡도 예측 모델 연구</t>
-  </si>
-  <si>
-    <t>https://www-earticle-net-ssl.access.inu.ac.kr/Article/A385365</t>
-  </si>
-  <si>
-    <t>내용 및 방법론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의견</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조사자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 분석 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼잡도를 다중 회귀 분석으로 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013~2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가통계포털 및 SNS 크롤링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허브역(환승역) 혼잡도 가중치 적용X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허브역 가중치 부여 및 역 주위 정보 인자 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박재흥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4호선 부족, 단순 데이터 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울교통공사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공공데이터포털(2호선)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한계점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2호선만 대상으로 연구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019, 2022(2020,2021 코로나로 인해 제외)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노션별 특징 반영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울시 공공데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공공데이터 외 다른 데이터 활용 X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상업지구, 유동인구 많은 곳과 혼잡도 연관 높음, R로 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공공데이터포털, 서울 열린데이터광장, 기상자료개방포털</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021~2023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대별, 기상 조건 고려, MLP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코로나&amp;기상 데이터 고려, GRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 분 단위의 승하차 이외 데이터 부재, 최단경로를 사용한다는 가정에 의한 오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로별 승하차인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮은듯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -473,6 +523,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -482,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,17 +607,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -884,400 +963,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D5D9BC-3531-42E1-9DE0-9C4613F6865D}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="64.75" customWidth="1"/>
-    <col min="2" max="3" width="13.08203125" customWidth="1"/>
-    <col min="4" max="4" width="90.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.9140625" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" customWidth="1"/>
-    <col min="8" max="8" width="48.83203125" customWidth="1"/>
-    <col min="9" max="9" width="55.6640625" customWidth="1"/>
-    <col min="10" max="10" width="36" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.08203125" customWidth="1"/>
+    <col min="5" max="5" width="90.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="39.9140625" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" customWidth="1"/>
+    <col min="9" max="9" width="48.83203125" customWidth="1"/>
+    <col min="10" max="10" width="55.6640625" customWidth="1"/>
+    <col min="11" max="11" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="I3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="G4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2023</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2013</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="13">
-        <v>2023</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2013</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="E8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>2020</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>2020</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K8" s="1"/>
+      <c r="L8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{AF4AB0A8-E5E8-4688-9A38-719AAEE40941}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{AF4AB0A8-E5E8-4688-9A38-719AAEE40941}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1301,13 +1457,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
